--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T23:28:48+00:00</t>
+    <t>2022-07-14T23:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T23:35:37+00:00</t>
+    <t>2022-07-15T00:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T00:31:00+00:00</t>
+    <t>2022-07-15T01:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T01:40:07+00:00</t>
+    <t>2022-07-15T03:58:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T03:58:01+00:00</t>
+    <t>2022-07-15T09:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T09:57:08+00:00</t>
+    <t>2022-07-18T23:59:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T23:59:16+00:00</t>
+    <t>2022-07-19T02:14:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T02:14:28+00:00</t>
+    <t>2022-07-19T08:05:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T08:05:59+00:00</t>
+    <t>2022-07-20T22:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T22:47:26+00:00</t>
+    <t>2022-07-21T02:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T02:38:40+00:00</t>
+    <t>2022-07-22T12:50:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T12:50:03+00:00</t>
+    <t>2022-07-25T13:41:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -517,7 +517,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest_Injection|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -670,7 +670,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Group|Device|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
 </t>
   </si>
   <si>
@@ -708,7 +708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>
@@ -820,7 +820,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|CareTeam)
 </t>
   </si>
   <si>
@@ -937,7 +937,7 @@
     <t>DiagnosticReport.imagingStudy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ImagingStudy)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_ImagingStudy_Radiology)
 </t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:41:20+00:00</t>
+    <t>2022-07-26T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:48:24+00:00</t>
+    <t>2022-07-29T00:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T00:48:21+00:00</t>
+    <t>2022-08-01T01:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T01:14:07+00:00</t>
+    <t>2022-08-01T09:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:08:31+00:00</t>
+    <t>2022-08-01T10:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T10:54:34+00:00</t>
+    <t>2022-08-03T00:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T00:30:07+00:00</t>
+    <t>2022-08-03T13:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:55:30+00:00</t>
+    <t>2022-08-06T07:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T07:57:57+00:00</t>
+    <t>2022-08-06T08:15:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T08:15:13+00:00</t>
+    <t>2022-08-08T12:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$33</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="340">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:51:35+00:00</t>
+    <t>2022-08-15T09:08:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,19 +259,17 @@
     <t/>
   </si>
   <si>
-    <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports 診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP_CORE】画像結果レポートのプロフィール</t>
+    <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports 診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP-Core仕様】画像結果レポートのプロフィール</t>
   </si>
   <si>
     <t>The findings and interpretation of diagnostic  tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.
 患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。
-【JP_CORE】
-画像結果レポートのプロフィール</t>
+【JP-Core仕様】画像結果レポートのプロフィール</t>
   </si>
   <si>
     <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.
 これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
-【JP-CORE】
-DIagnosticReportリソースの共通プロフィール</t>
+【JP-Core仕様】DiagnosticReportリソースの共通プロフィール</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -489,10 +490,8 @@
   </si>
   <si>
     <t>通常は診断サービスプロバイダの情報システムにより設定される。
-【JP-CORE】
-レポート番号&lt;br/&gt;
-（放射線情報システム(RIS)による発番が想定されるが、施設によって電子カルテ等のオーダ番号を使う場合もあり得る）
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP-Core仕様】レポート番号
+（放射線情報システム(RIS)による発番が想定されるが、施設によって電子カルテ等のオーダ番号を使う場合もあり得る）</t>
   </si>
   <si>
     <t>このレポートについてクエリを実行するとき、およびFHIRコンテキスト外のレポートにリンクするときにどの識別子を使用するかを知る必要がある</t>
@@ -528,9 +527,7 @@
   </si>
   <si>
     <t>通常は１つのリクエストに対し１つの検査結果となるが、状況によって１つのリクエストに対し複数の検査結果が要求され、複数のレポートが作成される場合もあるので注意すること。
-【JP-CORE】
-オーダ発生元の ServiceRequest または CarePlan への参照（多くの場合はServiceRequest（オーダ）が存在するが、オーダが発生しない検査も想定される。）
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP-Core仕様】オーダ発生元の ServiceRequest または CarePlan への参照（多くの場合はServiceRequest（オーダ）が存在するが、オーダが発生しない検査も想定される。）</t>
   </si>
   <si>
     <t>このエレメントによりレポートの認可をトレースしたり、レポート作成サービスに対する提案や推奨事項を追跡することができる。</t>
@@ -555,10 +552,8 @@
   </si>
   <si>
     <t>FHIRのstringsは1MBを越えてはならない（SHALL NOT）ことに留意すること。
-【JP-CORE】
-・診断レポートのステータス&lt;br/&gt;
-・定義通りの選択肢（例：preliminary 一次読影, final 二次読影（完了）等）を利用。
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP-Core仕様】・診断レポートのステータス
+・定義通りの選択肢（例：preliminary 一次読影, final 二次読影（完了）等）を利用。</t>
   </si>
   <si>
     <t>診断サービスではルーチンに仮確定あるいは不完全なレポートが発生することがある。また、しばしば前に発行されたレポートが取り消されることもある。</t>
@@ -603,9 +598,15 @@
   </si>
   <si>
     <t>様々なカテゴリのシェーマを用いて複数のカテゴリを設定できる。 カテゴリの情報粒度はvalue setに定義されている。より詳細なフィルタリングの粒度が必要な場合はDiagnosticReport.codeのmetadata等を用いることで対応できる。
-【JP-CORE】
-放射線レポートは ”RAD” をデフォルトとして設定。追加の情報については任意。
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP-Core仕様】放射線レポートは ”RAD” をデフォルトとして設定。追加の情報については任意。</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0074"/&gt;
+    &lt;code value="RAD"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>example</t>
@@ -640,9 +641,16 @@
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに適合するわけではない。 場合によっては、モデルにcodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と事前調整および事後調整を管理するための独自の構造を提供する必要がある。 
-【JP-CORE】
-[画像診断レポート交換手順ガイドライン](https://www.jira-net.or.jp/publishing/files/jesra/JESRA_TR-0042_2018.pdf)「5.1 レポート種別コード」に記載されているLOINCコード [Diagnostic imaging study](https://loinc.org/18748-4/) を指定
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP-Core仕様】[画像診断レポート交換手順ガイドライン](https://www.jira-net.or.jp/publishing/files/jesra/JESRA_TR-0042_2018.pdf)「5.1 レポート種別コード」に記載されているLOINCコード [Diagnostic imaging study](https://loinc.org/18748-4/) を指定</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="18748-4"/&gt;
+    &lt;display value="Diagnostic imaging study"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Codes that describe Diagnostic Reports.</t>
@@ -681,9 +689,7 @@
   </si>
   <si>
     <t>参照は実際のFHIRリソースへの参照であり、解決可能である必要がある。解決はURLから取得するか、または、リソースタイプが利用できる場合は絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索する。
-【JP-CORE】
-Patient リソースを参照
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP-Core仕様】Patient リソースを参照</t>
   </si>
   <si>
     <t>対象のコンテキストが必要である。</t>
@@ -719,12 +725,10 @@
   </si>
   <si>
     <t>これは通常、レポートの作成が発生するエンカウンターだが、一部のイベントはエンカウンターの正式な完了の前または後に開始される場合がある（例えば入院前の検査）。その場合でも（入院に関連して検査が行われる場合など）、エンカウンターのコンテキストに関連付けられる。
-【JP-CORE】
-このレポートを書く切っ掛けとなる Encounterリソース（例：術前検査の場合、術前訪問） を参照
-&lt;br/&gt;&lt;br/&gt;</t>
-  </si>
-  <si>
-    <t>Enconterコンテキストへのリンクが必要である</t>
+【JP-Core仕様】このレポートを書く切っ掛けとなる Encounterリソース（例：術前検査の場合、術前訪問） を参照</t>
+  </si>
+  <si>
+    <t>Encounterコンテキストへのリンクが必要である</t>
   </si>
   <si>
     <t>Event.encounter</t>
@@ -757,10 +761,8 @@
   </si>
   <si>
     <t>診断手順が患者に対して実行された場合、これは実行された時間を示す。
-【JP-CORE】
-レポート作成日時&lt;br/&gt;
-（DateTimeを採用し、Periodは不使用）
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP-Core仕様】レポート作成日時
+（DateTimeを採用し、Periodは不使用）</t>
   </si>
   <si>
     <t>Need to know where in the patient history to file/present this report.</t>
@@ -796,9 +798,7 @@
   </si>
   <si>
     <t>リソース自体の更新時間とは異なる場合がある。これは、レポートの実際のリリース時間ではなく、レコード（場合によってはセカンダリコピー）のステータスであるため。
-【JP-CORE】
-レポート確定日時
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP-Core仕様】レポート確定日時</t>
   </si>
   <si>
     <t>臨床医は、レポートがリリースされた日付を確認できる必要がある。</t>
@@ -831,10 +831,8 @@
   </si>
   <si>
     <t>臨床診断レポートに対して責任を持つもの.
-【JP-CORE】
-レポート確定者&lt;br/&gt;
-（責任としては performaer &gt; resultsInterpreter という関係性）
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP-Core仕様】レポート確定者
+（責任としては performer &gt; resultsInterpreter という関係性）</t>
   </si>
   <si>
     <t>結果に関する問い合わせがある場合は、誰に連絡を取るべきかを知る必要がある。また、データ二次分析のためにレポートの発生源を追跡する必要が生じる場合もある。</t>
@@ -866,12 +864,7 @@
   </si>
   <si>
     <t>必ずしも診断レポートに対して責任を持つものを示すわけでは無い。
-【JP-CORE】
-レポートの関係者（作成者、読影者、確定者など）を列挙
-&lt;br/&gt;&lt;br/&gt;
-【議論】&lt;br/&gt;
-但し、一次読影や二次読影などの役割 (Practioner Roll) の指定方法はペンディング
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP-Core仕様】但し、一次読影や二次読影などの役割 (Practitioner Roll) の指定方法はペンディング</t>
   </si>
   <si>
     <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
@@ -890,10 +883,8 @@
     <t>診断レポートの対象となる検体</t>
   </si>
   <si>
-    <t>【JP-CORE】
-・未使用&lt;br/&gt;
-・画像ガイド下生検で得られる検体の可能性は有り得るが、本項目は病理レポートで利用されることを想定し、放射線レポートでは特には規定しない
-&lt;br/&gt;&lt;br/&gt;</t>
+    <t>【JP-Core仕様】未使用
+・画像ガイド下生検で得られる検体の可能性は有り得るが、本項目は病理レポートで利用されることを想定し、放射線レポートでは特には規定しない</t>
   </si>
   <si>
     <t>レポートの対象となる取集された検体についての情報をレポートできる必要がある。</t>
@@ -920,9 +911,7 @@
   </si>
   <si>
     <t>Observationはさらにobservationを含むことができる。
-【JP-CORE】
-計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP-Core仕様】計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
   </si>
   <si>
     <t>結果のグループ化が任意だが、意味のある個別の結果または結果のグループをサポートする必要がある。</t>
@@ -947,10 +936,8 @@
     <t>実行された画像検査の完全な詳細に関する1つあるいは複数のリンク。通常、これは DICOM対応モダリティによって実行されるイメージングだが、DICOMであることが必須ではない。完全に有効な PACS ビューアは、この情報を使用してソース イメージのビューを提供できる。</t>
   </si>
   <si>
-    <t>【JP-CORE】
-・対象となるImagingStudyリソースを参照&lt;br/&gt;
-・放射線レポートでは検査実施後には必須（複数もあり得る）
-&lt;br/&gt;&lt;br/&gt;</t>
+    <t>【JP-Core仕様】・対象となるImagingStudyリソースを参照
+・放射線レポートでは検査実施後には必須（複数もあり得る）</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=COMP].target[classsCode=DGIMG, moodCode=EVN]</t>
@@ -973,9 +960,7 @@
     <t>このレポートに関連付けられているキーイメージの一覧。</t>
   </si>
   <si>
-    <t>【JP仕様】&lt;br/&gt;
-キーイメージを設定
-&lt;br/&gt;&lt;br/&gt;</t>
+    <t>【JP-Core仕様】キーイメージを設定</t>
   </si>
   <si>
     <t>多くの診断サービスには、サービスの一部としてレポートに画像が含まれている。</t>
@@ -1035,10 +1020,7 @@
   </si>
   <si>
     <t>コメントは、画像と共に表示される。レポートでは画像の内容に関する追加の議論が、DiagnosticReport.textやDiagnosticReport.conclusionなどの他のセクションに含まれるのが一般的である。
-&lt;br/&gt;&lt;br/&gt;
-【JP仕様】&lt;br/&gt;
-キーイメージの説明
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP-Core仕様】キーイメージの説明</t>
   </si>
   <si>
     <t>レポート作成者は、レポートに含まれる各画像についてコメントを付け加える</t>
@@ -1061,10 +1043,7 @@
   </si>
   <si>
     <t>参照は実際のFHIRリソースへの参照であり、解決可能である必要がある。解決はURLから取得するか、または、リソースタイプが利用できる場合は絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索する。
-&lt;br/&gt;&lt;br/&gt;
-【JP仕様】&lt;br/&gt;
-キーイメージの参照先
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP-Core仕様】キーイメージの参照先</t>
   </si>
   <si>
     <t>.value.reference</t>
@@ -1084,9 +1063,7 @@
   </si>
   <si>
     <t>FHIRのstringsは1MBを越えてはならない（SHALL NOT）ことに留意すること。
-【JP-CORE】
-放射線レポートの結果/結論/インプレッションの文章を記載
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP-Core仕様】放射線レポートの結果/結論/インプレッションの文章を記載</t>
   </si>
   <si>
     <t>基本的な結果で、失われない結論を提供する必要がある。</t>
@@ -1108,10 +1085,8 @@
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに適合するわけではない。 場合によっては、モデルにcodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と事前調整および事後調整を管理するための独自の構造を提供する必要がある。 
-【JP-CORE】
-・放射線レポートの所見の結論となるコードを設定。&lt;br/&gt;
-・例えば、ICD 病名コード
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP-Core仕様】・放射線レポートの所見の結論となるコードを設定。
+・例えば、ICD 病名コード</t>
   </si>
   <si>
     <t>Diagnosis codes provided as adjuncts to the report.</t>
@@ -1137,9 +1112,7 @@
   </si>
   <si>
     <t>"application/pdf" がこのコンテキストで最も信頼性が高く、相互運用可能なアプリケーションとして推奨される。
-【JP-CORE】
-添付するXHTMLやPDFなどの文書
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP-Core仕様】添付するXHTMLやPDFなどの文書</t>
   </si>
   <si>
     <t>臨床での再現性を担保するために、独自の完全にフォーマットされたレポートを提供可能である。</t>
@@ -1274,6 +1247,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1471,7 +1459,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="200.0703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="201.14453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1621,7 +1609,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1732,7 +1720,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
@@ -1843,7 +1831,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -1952,7 +1940,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -2063,7 +2051,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -2174,7 +2162,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -2285,7 +2273,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2396,7 +2384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>132</v>
       </c>
@@ -2507,7 +2495,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -2620,7 +2608,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -2749,7 +2737,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -2846,7 +2834,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>166</v>
       </c>
@@ -2959,7 +2947,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>178</v>
       </c>
@@ -2969,7 +2957,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>78</v>
@@ -3001,7 +2989,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>79</v>
@@ -3019,13 +3007,13 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>79</v>
@@ -3061,22 +3049,22 @@
         <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3098,13 +3086,13 @@
         <v>180</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3112,7 +3100,7 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>79</v>
@@ -3133,10 +3121,10 @@
         <v>112</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3154,7 +3142,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>88</v>
@@ -3169,25 +3157,25 @@
         <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3197,7 +3185,7 @@
         <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3206,19 +3194,19 @@
         <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3267,7 +3255,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3282,25 +3270,25 @@
         <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3319,19 +3307,19 @@
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -3380,7 +3368,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3395,29 +3383,29 @@
         <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>88</v>
@@ -3432,19 +3420,19 @@
         <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -3493,7 +3481,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3508,25 +3496,25 @@
         <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3536,7 +3524,7 @@
         <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3545,19 +3533,19 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -3606,7 +3594,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3624,22 +3612,22 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3649,7 +3637,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -3658,19 +3646,19 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -3719,7 +3707,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3734,25 +3722,25 @@
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3762,7 +3750,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -3771,19 +3759,19 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -3832,7 +3820,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3847,21 +3835,21 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3884,19 +3872,19 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -3945,7 +3933,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3963,22 +3951,22 @@
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3997,19 +3985,19 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4058,7 +4046,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4076,10 +4064,10 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4087,7 +4075,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4101,7 +4089,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4110,16 +4098,16 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4169,7 +4157,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4190,19 +4178,19 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4221,19 +4209,19 @@
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4282,7 +4270,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4300,18 +4288,18 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4337,10 +4325,10 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4391,7 +4379,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4412,15 +4400,15 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4449,7 +4437,7 @@
         <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>137</v>
@@ -4502,7 +4490,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4523,19 +4511,19 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4557,10 +4545,10 @@
         <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>137</v>
@@ -4615,7 +4603,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4642,9 +4630,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4670,16 +4658,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -4728,7 +4716,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4749,7 +4737,7 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4757,7 +4745,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4771,7 +4759,7 @@
         <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -4780,16 +4768,16 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4839,7 +4827,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>88</v>
@@ -4860,7 +4848,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4868,11 +4856,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4882,7 +4870,7 @@
         <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -4894,16 +4882,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -4952,7 +4940,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4970,18 +4958,18 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5007,13 +4995,13 @@
         <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5039,13 +5027,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5063,7 +5051,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5081,10 +5069,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5092,7 +5080,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5106,7 +5094,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5115,19 +5103,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5176,7 +5164,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5194,16 +5182,34 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM33">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI32">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T09:08:26+00:00</t>
+    <t>2022-08-17T12:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="339">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T12:11:07+00:00</t>
+    <t>2022-08-29T14:36:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,17 +259,15 @@
     <t/>
   </si>
   <si>
-    <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports 診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP-Core仕様】画像結果レポートのプロフィール</t>
-  </si>
-  <si>
-    <t>The findings and interpretation of diagnostic  tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.
-患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。
-【JP-Core仕様】画像結果レポートのプロフィール</t>
-  </si>
-  <si>
-    <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.
-これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
-【JP-Core仕様】DiagnosticReportリソースの共通プロフィール</t>
+    <t>診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP Core仕様】画像結果レポートのプロフィール</t>
+  </si>
+  <si>
+    <t>患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。
+【JP Core仕様】画像結果レポートのプロフィール</t>
+  </si>
+  <si>
+    <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
+【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -388,13 +386,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人が読める形式で提示された情報。放射線レポートの場合はレポートの所見が保持される。</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、リソースの内容を人間が解釈できる形で表現するために用いられる。すべての構造化データをエンコードする必要はないが、人間がテキストを読むだけで「臨床的に安全」になるように十分な詳細を含める必要がある。リソース定義は、臨床的安全性を確保するために、テキストの中でどのコンテンツを表現すべきかを定義することができる。放射線レポートでは少なくともレポートの所見が格納されることが期待される。また，検索可能な文字列が存在する部位としても利用されることを想定している。</t>
+  </si>
+  <si>
+    <t>放射線レポートの場合、主となる所見を表すエレメントは他のリソースエレメントには存在しない。よってこのドメインリソースを用いてレポートの少なくとも「所見」を人間が可読な状態で保持することが求められる。</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -483,14 +481,14 @@
 </t>
   </si>
   <si>
-    <t>Business identifier for report レポートを識別するビジネス識別子</t>
+    <t>レポートを識別するビジネス識別子</t>
   </si>
   <si>
     <t>実行者または他のシステムによってこのレポートに割り当てられた識別子。</t>
   </si>
   <si>
     <t>通常は診断サービスプロバイダの情報システムにより設定される。
-【JP-Core仕様】レポート番号
+【JP Core仕様】レポート番号
 （放射線情報システム(RIS)による発番が想定されるが、施設によって電子カルテ等のオーダ番号を使う場合もあり得る）</t>
   </si>
   <si>
@@ -520,14 +518,14 @@
 </t>
   </si>
   <si>
-    <t>What was requested　元になった検査や診断の依頼</t>
+    <t>検査や診断の依頼の元になったもの。通常はServiceRequestあるいはCarePlan（治験や抗がん剤投与等により検査を行うことが必須の場合、根拠となった事象を追記することは制限しない）</t>
   </si>
   <si>
     <t>レポート作成サービスに対する要求の詳細</t>
   </si>
   <si>
     <t>通常は１つのリクエストに対し１つの検査結果となるが、状況によって１つのリクエストに対し複数の検査結果が要求され、複数のレポートが作成される場合もあるので注意すること。
-【JP-Core仕様】オーダ発生元の ServiceRequest または CarePlan への参照（多くの場合はServiceRequest（オーダ）が存在するが、オーダが発生しない検査も想定される。）</t>
+【JP Core仕様】オーダ発生元の ServiceRequest または CarePlan への参照（多くの場合はServiceRequest（オーダ）が存在するが、オーダが発生しない検査も想定される。）</t>
   </si>
   <si>
     <t>このエレメントによりレポートの認可をトレースしたり、レポート作成サービスに対する提案や推奨事項を追跡することができる。</t>
@@ -552,7 +550,7 @@
   </si>
   <si>
     <t>FHIRのstringsは1MBを越えてはならない（SHALL NOT）ことに留意すること。
-【JP-Core仕様】・診断レポートのステータス
+【JP Core仕様】・診断レポートのステータス
 ・定義通りの選択肢（例：preliminary 一次読影, final 二次読影（完了）等）を利用。</t>
   </si>
   <si>
@@ -591,14 +589,14 @@
 </t>
   </si>
   <si>
-    <t>Service category　サービスカテゴリー</t>
+    <t>サービスカテゴリー</t>
   </si>
   <si>
     <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。</t>
   </si>
   <si>
     <t>様々なカテゴリのシェーマを用いて複数のカテゴリを設定できる。 カテゴリの情報粒度はvalue setに定義されている。より詳細なフィルタリングの粒度が必要な場合はDiagnosticReport.codeのmetadata等を用いることで対応できる。
-【JP-Core仕様】放射線レポートは ”RAD” をデフォルトとして設定。追加の情報については任意。</t>
+【JP Core仕様】放射線レポートは ”RAD” をデフォルトとして設定。追加の情報については任意。</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -634,14 +632,14 @@
 </t>
   </si>
   <si>
-    <t>Name/Code for this diagnostic report　この診断レポートの名前/コード</t>
+    <t>この診断レポートの名前/コード</t>
   </si>
   <si>
     <t>この診断レポートを表現するコードや名称</t>
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに適合するわけではない。 場合によっては、モデルにcodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と事前調整および事後調整を管理するための独自の構造を提供する必要がある。 
-【JP-Core仕様】[画像診断レポート交換手順ガイドライン](https://www.jira-net.or.jp/publishing/files/jesra/JESRA_TR-0042_2018.pdf)「5.1 レポート種別コード」に記載されているLOINCコード [Diagnostic imaging study](https://loinc.org/18748-4/) を指定</t>
+【JP Core仕様】[画像診断レポート交換手順ガイドライン](https://www.jira-net.or.jp/publishing/files/jesra/JESRA_TR-0042_2018.pdf)「5.1 レポート種別コード」に記載されているLOINCコード [Diagnostic imaging study](https://loinc.org/18748-4/) を指定</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -682,14 +680,14 @@
 </t>
   </si>
   <si>
-    <t>The subject of the report - usually, but not always, the patient 　レポートの対象、常にではないが、通常は患者</t>
+    <t>レポートの対象、常にではないが、通常は患者</t>
   </si>
   <si>
     <t>レポートの対象。 必ずでは無いが、通常、これには「患者」が該当する。</t>
   </si>
   <si>
     <t>参照は実際のFHIRリソースへの参照であり、解決可能である必要がある。解決はURLから取得するか、または、リソースタイプが利用できる場合は絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索する。
-【JP-Core仕様】Patient リソースを参照</t>
+【JP Core仕様】Patient リソースを参照</t>
   </si>
   <si>
     <t>対象のコンテキストが必要である。</t>
@@ -718,14 +716,14 @@
 </t>
   </si>
   <si>
-    <t>Health care event when test ordered　依頼時におけるヘルスケアイベント（受診など）</t>
+    <t>依頼時におけるヘルスケアイベント（受診など）</t>
   </si>
   <si>
     <t>この診断レポートが関するヘルスケアイベント。</t>
   </si>
   <si>
     <t>これは通常、レポートの作成が発生するエンカウンターだが、一部のイベントはエンカウンターの正式な完了の前または後に開始される場合がある（例えば入院前の検査）。その場合でも（入院に関連して検査が行われる場合など）、エンカウンターのコンテキストに関連付けられる。
-【JP-Core仕様】このレポートを書く切っ掛けとなる Encounterリソース（例：術前検査の場合、術前訪問） を参照</t>
+【JP Core仕様】このレポートを書く切っ掛けとなる Encounterリソース（例：術前検査の場合、術前訪問） を参照</t>
   </si>
   <si>
     <t>Encounterコンテキストへのリンクが必要である</t>
@@ -754,14 +752,14 @@
 </t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for report　臨床的に関連する時刻または時間</t>
+    <t>臨床的に関連する時刻または時間</t>
   </si>
   <si>
     <t>観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、読影開始の時間であり、日付/時刻自体のみが提供される。</t>
   </si>
   <si>
     <t>診断手順が患者に対して実行された場合、これは実行された時間を示す。
-【JP-Core仕様】レポート作成日時
+【JP Core仕様】レポート作成日時
 （DateTimeを採用し、Periodは不使用）</t>
   </si>
   <si>
@@ -791,14 +789,14 @@
 </t>
   </si>
   <si>
-    <t>DateTime this version was made　このバージョンが作成された日時</t>
+    <t>このバージョンが作成された日時</t>
   </si>
   <si>
     <t>このバージョンのレポートがプロバイダーに提供された日時。通常、レポートがレビューおよび検証された後になる。</t>
   </si>
   <si>
     <t>リソース自体の更新時間とは異なる場合がある。これは、レポートの実際のリリース時間ではなく、レコード（場合によってはセカンダリコピー）のステータスであるため。
-【JP-Core仕様】レポート確定日時</t>
+【JP Core仕様】レポート確定日時</t>
   </si>
   <si>
     <t>臨床医は、レポートがリリースされた日付を確認できる必要がある。</t>
@@ -820,18 +818,18 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|CareTeam)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner)
 </t>
   </si>
   <si>
-    <t>Responsible Diagnostic Service　レポート内容に責任をもつ診断的サービス</t>
+    <t>レポート内容に責任をもつ診断的サービス</t>
   </si>
   <si>
     <t>レポートの発行を担当するもの。</t>
   </si>
   <si>
     <t>臨床診断レポートに対して責任を持つもの.
-【JP-Core仕様】レポート確定者
+【JP Core仕様】レポート確定者
 （責任としては performer &gt; resultsInterpreter という関係性）</t>
   </si>
   <si>
@@ -857,14 +855,14 @@
 Reported by</t>
   </si>
   <si>
-    <t>Primary result interpreter　結果の一次解釈者</t>
+    <t>結果の一次解釈者</t>
   </si>
   <si>
     <t>レポートの結論や読影に関わる医師や組織</t>
   </si>
   <si>
     <t>必ずしも診断レポートに対して責任を持つものを示すわけでは無い。
-【JP-Core仕様】但し、一次読影や二次読影などの役割 (Practitioner Roll) の指定方法はペンディング</t>
+【JP Core仕様】但し、一次読影や二次読影などの役割 (Practitioner Roll) の指定方法はペンディング</t>
   </si>
   <si>
     <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
@@ -877,14 +875,11 @@
 </t>
   </si>
   <si>
-    <t>Specimens this report is based on　レポートのもとになった検体</t>
+    <t>【JP Core仕様】未使用
+・画像ガイド下生検で得られる検体の可能性は有り得るが、本項目は病理レポートで利用されることを想定し、放射線レポートでは特には規定しない</t>
   </si>
   <si>
     <t>診断レポートの対象となる検体</t>
-  </si>
-  <si>
-    <t>【JP-Core仕様】未使用
-・画像ガイド下生検で得られる検体の可能性は有り得るが、本項目は病理レポートで利用されることを想定し、放射線レポートでは特には規定しない</t>
   </si>
   <si>
     <t>レポートの対象となる取集された検体についての情報をレポートできる必要がある。</t>
@@ -904,14 +899,14 @@
 </t>
   </si>
   <si>
-    <t>Observations　検査結果</t>
+    <t>【JP Core仕様】計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
   </si>
   <si>
     <t>診断レポートの一部となるObservationリソース</t>
   </si>
   <si>
     <t>Observationはさらにobservationを含むことができる。
-【JP-Core仕様】計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
+【JP Core仕様】計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
   </si>
   <si>
     <t>結果のグループ化が任意だが、意味のある個別の結果または結果のグループをサポートする必要がある。</t>
@@ -930,13 +925,13 @@
 </t>
   </si>
   <si>
-    <t>Reference to full details of imaging associated with the diagnostic report　診断レポートに関連づけれらた画像検査の詳細情報への参照</t>
+    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照</t>
   </si>
   <si>
     <t>実行された画像検査の完全な詳細に関する1つあるいは複数のリンク。通常、これは DICOM対応モダリティによって実行されるイメージングだが、DICOMであることが必須ではない。完全に有効な PACS ビューアは、この情報を使用してソース イメージのビューを提供できる。</t>
   </si>
   <si>
-    <t>【JP-Core仕様】・対象となるImagingStudyリソースを参照
+    <t>【JP Core仕様】・対象となるImagingStudyリソースを参照
 ・放射線レポートでは検査実施後には必須（複数もあり得る）</t>
   </si>
   <si>
@@ -954,13 +949,13 @@
 </t>
   </si>
   <si>
-    <t>Key images associated with this report　このレポートに関連づけられたキー画像</t>
+    <t>このレポートに関連づけられたキー画像</t>
   </si>
   <si>
     <t>このレポートに関連付けられているキーイメージの一覧。</t>
   </si>
   <si>
-    <t>【JP-Core仕様】キーイメージを設定</t>
+    <t>【JP Core仕様】キーイメージを設定</t>
   </si>
   <si>
     <t>多くの診断サービスには、サービスの一部としてレポートに画像が含まれている。</t>
@@ -1020,7 +1015,7 @@
   </si>
   <si>
     <t>コメントは、画像と共に表示される。レポートでは画像の内容に関する追加の議論が、DiagnosticReport.textやDiagnosticReport.conclusionなどの他のセクションに含まれるのが一般的である。
-【JP-Core仕様】キーイメージの説明</t>
+【JP Core仕様】キーイメージの説明</t>
   </si>
   <si>
     <t>レポート作成者は、レポートに含まれる各画像についてコメントを付け加える</t>
@@ -1043,7 +1038,7 @@
   </si>
   <si>
     <t>参照は実際のFHIRリソースへの参照であり、解決可能である必要がある。解決はURLから取得するか、または、リソースタイプが利用できる場合は絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索する。
-【JP-Core仕様】キーイメージの参照先</t>
+【JP Core仕様】キーイメージの参照先</t>
   </si>
   <si>
     <t>.value.reference</t>
@@ -1056,14 +1051,14 @@
 </t>
   </si>
   <si>
-    <t>Clinical conclusion (interpretation) of test results　検査結果の臨床的結論（解釈）</t>
+    <t>検査結果の臨床的結論（解釈）</t>
   </si>
   <si>
     <t>診断報告書の簡潔かつ臨床的に文脈化された要約結論(interpretation/impression)</t>
   </si>
   <si>
     <t>FHIRのstringsは1MBを越えてはならない（SHALL NOT）ことに留意すること。
-【JP-Core仕様】放射線レポートの結果/結論/インプレッションの文章を記載</t>
+【JP Core仕様】放射線レポートの結果/結論/インプレッションの文章を記載</t>
   </si>
   <si>
     <t>基本的な結果で、失われない結論を提供する必要がある。</t>
@@ -1078,14 +1073,14 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>Codes for the clinical conclusion of test results　検査結果の臨床的結論（解釈）用のコード</t>
+    <t>検査結果の臨床的結論（解釈）用のコード</t>
   </si>
   <si>
     <t>診断レポートの要約の結論 (interpretation/impression) を表す 1 つ以上のコード。</t>
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに適合するわけではない。 場合によっては、モデルにcodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と事前調整および事後調整を管理するための独自の構造を提供する必要がある。 
-【JP-Core仕様】・放射線レポートの所見の結論となるコードを設定。
+【JP Core仕様】・放射線レポートの所見の結論となるコードを設定。
 ・例えば、ICD 病名コード</t>
   </si>
   <si>
@@ -1105,14 +1100,14 @@
 </t>
   </si>
   <si>
-    <t>Entire report as issued　発行されたレポート全体</t>
+    <t>発行されたレポート全体</t>
   </si>
   <si>
     <t>診断サービスによって発行された結果全体のリッチ テキスト表現。複数の形式は許可されるが、意味的に等価である必要がある。</t>
   </si>
   <si>
     <t>"application/pdf" がこのコンテキストで最も信頼性が高く、相互運用可能なアプリケーションとして推奨される。
-【JP-Core仕様】添付するXHTMLやPDFなどの文書</t>
+【JP Core仕様】添付するXHTMLやPDFなどの文書</t>
   </si>
   <si>
     <t>臨床での再現性を担保するために、独自の完全にフォーマットされたレポートを提供可能である。</t>
@@ -1459,7 +1454,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="201.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="123.23828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2721,7 +2716,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>156</v>
       </c>
@@ -2737,7 +2732,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3621,7 +3616,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>246</v>
       </c>
@@ -3637,7 +3632,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -3734,7 +3729,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>257</v>
       </c>
@@ -3750,7 +3745,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -3881,10 +3876,10 @@
         <v>266</v>
       </c>
       <c r="M22" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -3951,7 +3946,7 @@
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>212</v>
@@ -3962,11 +3957,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3985,19 +3980,19 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4046,7 +4041,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4064,10 +4059,10 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4075,7 +4070,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4098,16 +4093,16 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4157,7 +4152,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4178,7 +4173,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4186,11 +4181,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4209,19 +4204,19 @@
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4270,7 +4265,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4288,10 +4283,10 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4299,7 +4294,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4325,10 +4320,10 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4379,7 +4374,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4400,7 +4395,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4408,7 +4403,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4437,7 +4432,7 @@
         <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>137</v>
@@ -4490,7 +4485,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4511,7 +4506,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -4519,11 +4514,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4545,10 +4540,10 @@
         <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>137</v>
@@ -4603,7 +4598,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4632,7 +4627,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4658,16 +4653,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -4716,7 +4711,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4737,7 +4732,7 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4745,7 +4740,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4768,16 +4763,16 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4827,7 +4822,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>88</v>
@@ -4848,7 +4843,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4856,11 +4851,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4882,16 +4877,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -4940,7 +4935,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4958,10 +4953,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4969,7 +4964,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4995,13 +4990,13 @@
         <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5030,11 +5025,11 @@
         <v>185</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5051,7 +5046,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5069,10 +5064,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5080,7 +5075,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5103,19 +5098,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5164,7 +5159,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5182,10 +5177,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:36:41+00:00</t>
+    <t>2022-09-02T06:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$39</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="371">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T06:00:18+00:00</t>
+    <t>2022-09-14T09:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,7 +259,7 @@
     <t/>
   </si>
   <si>
-    <t>診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP Core仕様】画像結果レポートのプロフィール</t>
+    <t>診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP Core仕様】画像結果レポートのプロフィール。【詳細参照】</t>
   </si>
   <si>
     <t>患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。
@@ -292,7 +292,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -386,7 +386,7 @@
 </t>
   </si>
   <si>
-    <t>人が読める形式で提示された情報。放射線レポートの場合はレポートの所見が保持される。</t>
+    <t>人が読める形式で提示された情報。放射線レポートの場合はレポートの所見が保持される。【詳細参照】</t>
   </si>
   <si>
     <t>リソースの概要を含み、リソースの内容を人間が解釈できる形で表現するために用いられる。すべての構造化データをエンコードする必要はないが、人間がテキストを読むだけで「臨床的に安全」になるように十分な詳細を含める必要がある。リソース定義は、臨床的安全性を確保するために、テキストの中でどのコンテンツを表現すべきかを定義することができる。放射線レポートでは少なくともレポートの所見が格納されることが期待される。また，検索可能な文字列が存在する部位としても利用されることを想定している。</t>
@@ -481,7 +481,7 @@
 </t>
   </si>
   <si>
-    <t>レポートを識別するビジネス識別子</t>
+    <t>レポートを識別するビジネス識別子。【詳細参照】</t>
   </si>
   <si>
     <t>実行者または他のシステムによってこのレポートに割り当てられた識別子。</t>
@@ -518,10 +518,10 @@
 </t>
   </si>
   <si>
+    <t>レポート作成サービスに対する要求の詳細。【詳細参照】</t>
+  </si>
+  <si>
     <t>検査や診断の依頼の元になったもの。通常はServiceRequestあるいはCarePlan（治験や抗がん剤投与等により検査を行うことが必須の場合、根拠となった事象を追記することは制限しない）</t>
-  </si>
-  <si>
-    <t>レポート作成サービスに対する要求の詳細</t>
   </si>
   <si>
     <t>通常は１つのリクエストに対し１つの検査結果となるが、状況によって１つのリクエストに対し複数の検査結果が要求され、複数のレポートが作成される場合もあるので注意すること。
@@ -543,7 +543,7 @@
     <t>DiagnosticReport.status</t>
   </si>
   <si>
-    <t>registered | partial | preliminary | final +</t>
+    <t>診断レポートの状態。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートの状態</t>
@@ -589,14 +589,47 @@
 </t>
   </si>
   <si>
-    <t>サービスカテゴリー</t>
-  </si>
-  <si>
-    <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。</t>
-  </si>
-  <si>
-    <t>様々なカテゴリのシェーマを用いて複数のカテゴリを設定できる。 カテゴリの情報粒度はvalue setに定義されている。より詳細なフィルタリングの粒度が必要な場合はDiagnosticReport.codeのmetadata等を用いることで対応できる。
-【JP Core仕様】放射線レポートは ”RAD” をデフォルトとして設定。追加の情報については任意。</t>
+    <t>レポートを作成した分野を分類するコード。【詳細参照】</t>
+  </si>
+  <si>
+    <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。【JP-Core仕様】放射線レポートは ”RAD” をデフォルトとして設定。追加の情報については任意で設定可能。</t>
+  </si>
+  <si>
+    <t>さまざまなカテゴリ化スキームを使用して、複数のカテゴリを使用できる。粒度のレベルは、それぞれの値セットのカテゴリの概念によって定義される。 DiagnosticReport.codeのメタデータや用語の階層を使用して、よりきめ細かいフィルタリングを実行できる。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>OBR-24</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>radiology</t>
+  </si>
+  <si>
+    <t>サービスカテゴリー。【詳細参照】</t>
+  </si>
+  <si>
+    <t>レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、MRIなど）を分類するコード。これは、検索、並べ替え、および表示の目的で使用される。</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -607,24 +640,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
-  </si>
-  <si>
-    <t>OBR-24</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>DiagnosticReport.code</t>
   </si>
   <si>
@@ -632,23 +647,13 @@
 </t>
   </si>
   <si>
-    <t>この診断レポートの名前/コード</t>
+    <t>この診断レポートの名前/コード。【詳細参照】</t>
   </si>
   <si>
     <t>この診断レポートを表現するコードや名称</t>
   </si>
   <si>
-    <t>すべての用語の使用がこの一般的なパターンに適合するわけではない。 場合によっては、モデルにcodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と事前調整および事後調整を管理するための独自の構造を提供する必要がある。 
-【JP Core仕様】[画像診断レポート交換手順ガイドライン](https://www.jira-net.or.jp/publishing/files/jesra/JESRA_TR-0042_2018.pdf)「5.1 レポート種別コード」に記載されているLOINCコード [Diagnostic imaging study](https://loinc.org/18748-4/) を指定</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="18748-4"/&gt;
-    &lt;display value="Diagnostic imaging study"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>【JP Core仕様】[画像診断レポート交換手順ガイドライン](https://www.jira-net.or.jp/publishing/files/jesra/JESRA_TR-0042_2018.pdf)「5.1 レポート種別コード」に記載されているLOINCコード [Diagnostic imaging study](https://loinc.org/18748-4/) を指定。コードを指定できない場合はCodeableConceptを使用せずテキスト等を直接コーディングすることも許容されるが、要素間の調整と事前・事後の内容の整合性確保のために独自の構造を提供する必要があるので留意すること。</t>
   </si>
   <si>
     <t>Codes that describe Diagnostic Reports.</t>
@@ -667,6 +672,112 @@
   </si>
   <si>
     <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>radiologyReportCode</t>
+  </si>
+  <si>
+    <t>放射線レポート項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。【詳細参照】</t>
+  </si>
+  <si>
+    <t>放射線レポート項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。</t>
+  </si>
+  <si>
+    <t>推奨コードは必須ではない、派生先によるコード体系を作成し割り振ることを否定しない</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="18748-4"/&gt;
+  &lt;display value="Diagnostic imaging study"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>DiagnosticReport.subject</t>
@@ -680,7 +791,7 @@
 </t>
   </si>
   <si>
-    <t>レポートの対象、常にではないが、通常は患者</t>
+    <t>レポートの対象、常にではないが、通常は患者。【詳細参照】</t>
   </si>
   <si>
     <t>レポートの対象。 必ずでは無いが、通常、これには「患者」が該当する。</t>
@@ -716,7 +827,7 @@
 </t>
   </si>
   <si>
-    <t>依頼時におけるヘルスケアイベント（受診など）</t>
+    <t>依頼時におけるヘルスケアイベント（受診など）。【詳細参照】</t>
   </si>
   <si>
     <t>この診断レポートが関するヘルスケアイベント。</t>
@@ -752,7 +863,7 @@
 </t>
   </si>
   <si>
-    <t>臨床的に関連する時刻または時間</t>
+    <t>臨床的に関連する時刻または時間。【詳細参照】</t>
   </si>
   <si>
     <t>観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、読影開始の時間であり、日付/時刻自体のみが提供される。</t>
@@ -789,7 +900,7 @@
 </t>
   </si>
   <si>
-    <t>このバージョンが作成された日時</t>
+    <t>このバージョンが作成された日時。【詳細参照】</t>
   </si>
   <si>
     <t>このバージョンのレポートがプロバイダーに提供された日時。通常、レポートがレビューおよび検証された後になる。</t>
@@ -822,7 +933,7 @@
 </t>
   </si>
   <si>
-    <t>レポート内容に責任をもつ診断的サービス</t>
+    <t>レポート内容に責任をもつ診断的サービス。【詳細参照】</t>
   </si>
   <si>
     <t>レポートの発行を担当するもの。</t>
@@ -855,7 +966,7 @@
 Reported by</t>
   </si>
   <si>
-    <t>結果の一次解釈者</t>
+    <t>結果の一次解釈者。【詳細参照】</t>
   </si>
   <si>
     <t>レポートの結論や読影に関わる医師や組織</t>
@@ -876,10 +987,14 @@
   </si>
   <si>
     <t>【JP Core仕様】未使用
+・画像ガイド下生検で得られる検体の可能性は有り得るが、放射線レポートでは特には規定しない【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの対象となる検体</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】未使用
 ・画像ガイド下生検で得られる検体の可能性は有り得るが、本項目は病理レポートで利用されることを想定し、放射線レポートでは特には規定しない</t>
-  </si>
-  <si>
-    <t>診断レポートの対象となる検体</t>
   </si>
   <si>
     <t>レポートの対象となる取集された検体についての情報をレポートできる必要がある。</t>
@@ -902,7 +1017,7 @@
     <t>【JP Core仕様】計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
   </si>
   <si>
-    <t>診断レポートの一部となるObservationリソース</t>
+    <t>診断レポートの一部となるObservationリソース【詳細参照】</t>
   </si>
   <si>
     <t>Observationはさらにobservationを含むことができる。
@@ -925,7 +1040,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照</t>
+    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照。【詳細参照】</t>
   </si>
   <si>
     <t>実行された画像検査の完全な詳細に関する1つあるいは複数のリンク。通常、これは DICOM対応モダリティによって実行されるイメージングだが、DICOMであることが必須ではない。完全に有効な PACS ビューアは、この情報を使用してソース イメージのビューを提供できる。</t>
@@ -949,7 +1064,7 @@
 </t>
   </si>
   <si>
-    <t>このレポートに関連づけられたキー画像</t>
+    <t>このレポートに関連づけられたキー画像。【詳細参照】</t>
   </si>
   <si>
     <t>このレポートに関連付けられているキーイメージの一覧。</t>
@@ -967,25 +1082,7 @@
     <t>DiagnosticReport.media.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.media.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.media.modifierExtension</t>
@@ -1051,7 +1148,7 @@
 </t>
   </si>
   <si>
-    <t>検査結果の臨床的結論（解釈）</t>
+    <t>検査結果の臨床的結論（解釈）。【詳細参照】</t>
   </si>
   <si>
     <t>診断報告書の簡潔かつ臨床的に文脈化された要約結論(interpretation/impression)</t>
@@ -1073,7 +1170,7 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>検査結果の臨床的結論（解釈）用のコード</t>
+    <t>検査結果の臨床的結論（解釈）用のコード。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートの要約の結論 (interpretation/impression) を表す 1 つ以上のコード。</t>
@@ -1100,7 +1197,7 @@
 </t>
   </si>
   <si>
-    <t>発行されたレポート全体</t>
+    <t>発行されたレポート全体。【詳細参照】</t>
   </si>
   <si>
     <t>診断サービスによって発行された結果全体のリッチ テキスト表現。複数の形式は許可されるが、意味的に等価である必要がある。</t>
@@ -1435,7 +1532,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1445,7 +1542,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.44921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1471,7 +1568,7 @@
     <col min="25" max="25" width="53.546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2716,7 +2813,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>156</v>
       </c>
@@ -2732,7 +2829,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -2958,7 +3055,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -2984,46 +3081,44 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="R14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W14" t="s" s="2">
+      <c r="X14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>178</v>
@@ -3044,22 +3139,24 @@
         <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="C15" t="s" s="2">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3087,7 +3184,7 @@
         <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3095,10 +3192,10 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>79</v>
@@ -3113,13 +3210,13 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3137,13 +3234,13 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
@@ -3152,35 +3249,35 @@
         <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3189,20 +3286,18 @@
         <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3226,13 +3321,13 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
@@ -3250,10 +3345,10 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>88</v>
@@ -3265,25 +3360,25 @@
         <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3299,23 +3394,19 @@
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3363,7 +3454,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3375,35 +3466,35 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -3412,23 +3503,21 @@
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3464,62 +3553,62 @@
         <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3528,19 +3617,19 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -3577,25 +3666,23 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
@@ -3607,29 +3694,31 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -3641,19 +3730,19 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -3663,7 +3752,7 @@
         <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>79</v>
@@ -3702,7 +3791,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3717,32 +3806,32 @@
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -3754,19 +3843,19 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -3815,13 +3904,13 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -3830,56 +3919,56 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -3928,13 +4017,13 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -3943,32 +4032,32 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -3977,22 +4066,22 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4041,13 +4130,13 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -4056,32 +4145,32 @@
         <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>89</v>
@@ -4090,21 +4179,23 @@
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4152,13 +4243,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4167,35 +4258,35 @@
         <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4204,19 +4295,19 @@
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4265,13 +4356,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -4283,50 +4374,54 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4374,40 +4469,40 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>133</v>
+        <v>295</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4417,27 +4512,29 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4485,7 +4582,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4497,19 +4594,19 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -4518,7 +4615,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4531,13 +4628,13 @@
         <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>302</v>
@@ -4546,10 +4643,10 @@
         <v>303</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>137</v>
+        <v>304</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>143</v>
+        <v>305</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -4598,7 +4695,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4610,16 +4707,16 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4627,18 +4724,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -4650,19 +4747,19 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>309</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -4711,13 +4808,13 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -4729,10 +4826,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4740,7 +4837,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4748,10 +4845,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>89</v>
@@ -4760,19 +4857,19 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4822,13 +4919,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -4843,50 +4940,50 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>324</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -4935,13 +5032,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -4953,10 +5050,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4964,7 +5061,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4975,7 +5072,7 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -4987,17 +5084,15 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5022,13 +5117,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5046,40 +5141,40 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>325</v>
+        <v>211</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5089,7 +5184,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5098,20 +5193,18 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>333</v>
+        <v>134</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>334</v>
+        <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>335</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5159,7 +5252,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>332</v>
+        <v>217</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5171,23 +5264,697 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI35" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AJ35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM33">
+  <autoFilter ref="A1:AM39">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5197,7 +5964,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI32">
+  <conditionalFormatting sqref="A2:AI38">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:35:02+00:00</t>
+    <t>2022-09-16T11:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T11:30:59+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -833,7 +833,7 @@
     <t>この診断レポートが関するヘルスケアイベント。</t>
   </si>
   <si>
-    <t>これは通常、レポートの作成が発生するエンカウンターだが、一部のイベントはエンカウンターの正式な完了の前または後に開始される場合がある（例えば入院前の検査）。その場合でも（入院に関連して検査が行われる場合など）、エンカウンターのコンテキストに関連付けられる。
+    <t>これは通常、レポートの作成が発生するEncounterだが、一部のイベントはEncounterの正式な完了の前または後に開始される場合がある（例えば入院前の検査）。その場合でも（入院に関連して検査が行われる場合など）、Encounterのコンテキストに関連付けられる。
 【JP Core仕様】このレポートを書く切っ掛けとなる Encounterリソース（例：術前検査の場合、術前訪問） を参照</t>
   </si>
   <si>
@@ -903,7 +903,7 @@
     <t>このバージョンが作成された日時。【詳細参照】</t>
   </si>
   <si>
-    <t>このバージョンのレポートがプロバイダーに提供された日時。通常、レポートがレビューおよび検証された後になる。</t>
+    <t>このバージョンのレポートがプロバイダに提供された日時。通常、レポートがレビューおよび検証された後になる。</t>
   </si>
   <si>
     <t>リソース自体の更新時間とは異なる場合がある。これは、レポートの実際のリリース時間ではなく、レコード（場合によってはセカンダリコピー）のステータスであるため。
@@ -1014,10 +1014,10 @@
 </t>
   </si>
   <si>
+    <t>診断レポートの一部となるObservationリソース【詳細参照】</t>
+  </si>
+  <si>
     <t>【JP Core仕様】計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
-  </si>
-  <si>
-    <t>診断レポートの一部となるObservationリソース【詳細参照】</t>
   </si>
   <si>
     <t>Observationはさらにobservationを含むことができる。
@@ -1551,7 +1551,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="123.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.46484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -93,6 +93,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -268,10 +271,6 @@
   <si>
     <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
 【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1474,55 +1473,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1584,220 +1583,220 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>84</v>
@@ -1809,7 +1808,7 @@
         <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -1818,20 +1817,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>89</v>
@@ -1850,77 +1849,77 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" hidden="true">
@@ -1929,20 +1928,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>89</v>
@@ -1959,77 +1958,77 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" hidden="true">
@@ -2038,17 +2037,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>89</v>
@@ -2070,77 +2069,77 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -2149,23 +2148,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>108</v>
@@ -2181,26 +2180,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>112</v>
@@ -2212,46 +2211,46 @@
         <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -2264,19 +2263,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>118</v>
@@ -2292,77 +2291,77 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>122</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -2375,19 +2374,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>126</v>
@@ -2403,77 +2402,77 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" hidden="true">
@@ -2486,19 +2485,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>134</v>
@@ -2514,77 +2513,77 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" hidden="true">
@@ -2597,19 +2596,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>134</v>
@@ -2627,77 +2626,77 @@
         <v>143</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -2710,16 +2709,16 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>89</v>
@@ -2740,62 +2739,62 @@
         <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>100</v>
@@ -2823,19 +2822,19 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>158</v>
@@ -2853,62 +2852,62 @@
         <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>100</v>
@@ -2923,7 +2922,7 @@
         <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -2932,7 +2931,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2942,7 +2941,7 @@
         <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>89</v>
@@ -2966,26 +2965,26 @@
         <v>170</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
         <v>171</v>
@@ -2997,19 +2996,19 @@
         <v>173</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>166</v>
@@ -3021,7 +3020,7 @@
         <v>88</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>100</v>
@@ -3052,13 +3051,13 @@
         <v>88</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>89</v>
@@ -3077,26 +3076,26 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>184</v>
@@ -3108,14 +3107,14 @@
         <v>186</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>187</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>188</v>
@@ -3124,19 +3123,19 @@
         <v>178</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>189</v>
@@ -3166,10 +3165,10 @@
         <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>89</v>
@@ -3188,26 +3187,26 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>195</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>184</v>
@@ -3219,37 +3218,37 @@
         <v>186</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>189</v>
@@ -3277,10 +3276,10 @@
         <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>89</v>
@@ -3299,26 +3298,26 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>112</v>
@@ -3330,19 +3329,19 @@
         <v>202</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>196</v>
@@ -3354,7 +3353,7 @@
         <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>100</v>
@@ -3378,23 +3377,23 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>208</v>
@@ -3408,77 +3407,77 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>212</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -3491,19 +3490,19 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>134</v>
@@ -3519,38 +3518,38 @@
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>215</v>
@@ -3559,7 +3558,7 @@
         <v>216</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>188</v>
@@ -3568,28 +3567,28 @@
         <v>217</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" hidden="true">
@@ -3598,20 +3597,20 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>89</v>
@@ -3632,45 +3631,45 @@
         <v>223</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>187</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>188</v>
@@ -3679,19 +3678,19 @@
         <v>224</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>225</v>
@@ -3700,7 +3699,7 @@
         <v>226</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" hidden="true">
@@ -3711,20 +3710,20 @@
         <v>227</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>89</v>
@@ -3745,68 +3744,68 @@
         <v>223</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>231</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>224</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>225</v>
@@ -3815,7 +3814,7 @@
         <v>226</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" hidden="true">
@@ -3824,20 +3823,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>89</v>
@@ -3858,68 +3857,68 @@
         <v>236</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>237</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>238</v>
@@ -3928,7 +3927,7 @@
         <v>239</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -3941,7 +3940,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>88</v>
@@ -3950,7 +3949,7 @@
         <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>89</v>
@@ -3971,62 +3970,62 @@
         <v>246</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>240</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>100</v>
@@ -4054,16 +4053,16 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>89</v>
@@ -4084,62 +4083,62 @@
         <v>257</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>251</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>100</v>
@@ -4167,7 +4166,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>88</v>
@@ -4176,7 +4175,7 @@
         <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>89</v>
@@ -4197,62 +4196,62 @@
         <v>268</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>262</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>100</v>
@@ -4280,7 +4279,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>88</v>
@@ -4289,7 +4288,7 @@
         <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>89</v>
@@ -4310,68 +4309,68 @@
         <v>279</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>273</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>280</v>
@@ -4393,16 +4392,16 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>89</v>
@@ -4423,62 +4422,62 @@
         <v>289</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>283</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>100</v>
@@ -4506,16 +4505,16 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>89</v>
@@ -4536,62 +4535,62 @@
         <v>289</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>294</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>100</v>
@@ -4615,23 +4614,23 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>301</v>
@@ -4649,68 +4648,68 @@
         <v>305</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>300</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>306</v>
@@ -4719,7 +4718,7 @@
         <v>249</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" hidden="true">
@@ -4732,19 +4731,19 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>309</v>
@@ -4762,68 +4761,68 @@
         <v>313</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>307</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>314</v>
@@ -4832,7 +4831,7 @@
         <v>315</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -4841,23 +4840,23 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>317</v>
@@ -4873,77 +4872,77 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>316</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -4956,16 +4955,16 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>89</v>
@@ -4986,68 +4985,68 @@
         <v>328</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>322</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>329</v>
@@ -5056,7 +5055,7 @@
         <v>315</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" hidden="true">
@@ -5065,23 +5064,23 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>208</v>
@@ -5095,77 +5094,77 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>212</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" hidden="true">
@@ -5178,19 +5177,19 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>134</v>
@@ -5206,77 +5205,77 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>217</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>212</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -5289,13 +5288,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>89</v>
@@ -5319,77 +5318,77 @@
         <v>143</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>336</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" hidden="true">
@@ -5398,23 +5397,23 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>208</v>
@@ -5432,77 +5431,77 @@
         <v>341</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>337</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>342</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -5511,7 +5510,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5524,7 +5523,7 @@
         <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>89</v>
@@ -5543,50 +5542,50 @@
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>343</v>
@@ -5598,22 +5597,22 @@
         <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>348</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
@@ -5626,7 +5625,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>88</v>
@@ -5635,10 +5634,10 @@
         <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>208</v>
@@ -5656,68 +5655,68 @@
         <v>354</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>349</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>355</v>
@@ -5726,7 +5725,7 @@
         <v>356</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" hidden="true">
@@ -5735,23 +5734,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>180</v>
@@ -5767,26 +5766,26 @@
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
         <v>184</v>
@@ -5798,37 +5797,37 @@
         <v>362</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>357</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>355</v>
@@ -5837,7 +5836,7 @@
         <v>363</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
@@ -5846,23 +5845,23 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>365</v>
@@ -5880,68 +5879,68 @@
         <v>369</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>364</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>355</v>
@@ -5950,7 +5949,7 @@
         <v>370</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
